--- a/Modules/Visit/Resources/views/citizens/excel_estadistico.xlsx
+++ b/Modules/Visit/Resources/views/citizens/excel_estadistico.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desar\Desktop\DEVELOPER\defensoria2\Modules\Visit\Resources\views\citizens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE765AC2-4EC5-46D2-9B67-3F4A63398CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85D9DD-9E28-4788-B257-8586FC65DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Derechos fundamentales" sheetId="1" r:id="rId1"/>
+    <sheet name="hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>MASCULINO</t>
   </si>
@@ -37,9 +37,6 @@
     <t>GÉNERO</t>
   </si>
   <si>
-    <t>NO BINARIO</t>
-  </si>
-  <si>
     <t>ATRIBUTO</t>
   </si>
   <si>
@@ -49,21 +46,6 @@
     <t>CANTIDAD</t>
   </si>
   <si>
-    <t>0 - 5 años Primera Infancia</t>
-  </si>
-  <si>
-    <t>6 - 11 años Niños - Niñas</t>
-  </si>
-  <si>
-    <t>12 - 17 años Adolescencia</t>
-  </si>
-  <si>
-    <t>29 - 59 años Adultos</t>
-  </si>
-  <si>
-    <t>Mayor de 60 años adulto mayor</t>
-  </si>
-  <si>
     <t>Adulto Mayor</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t>Ninguno</t>
   </si>
   <si>
-    <t>18 - 28 años Jóvenes</t>
-  </si>
-  <si>
     <t>CANTIDAD %</t>
   </si>
   <si>
@@ -127,29 +106,35 @@
     <t xml:space="preserve">Estadisticas  demográficas </t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Estadisticas de estado del caso</t>
-  </si>
-  <si>
-    <t>Solucionado</t>
-  </si>
-  <si>
-    <t>Remisón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendiente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datos estadisticos de atenciones prestadas </t>
+    <t>0-5 años primera infancia</t>
+  </si>
+  <si>
+    <t>6-11 años niños niñas</t>
+  </si>
+  <si>
+    <t>12-17 adolescentes</t>
+  </si>
+  <si>
+    <t>18-28 jóvenes</t>
+  </si>
+  <si>
+    <t>29-59 adultos</t>
+  </si>
+  <si>
+    <t>Mayor de 60 adulto mayor</t>
+  </si>
+  <si>
+    <t>INTERSEXUAL</t>
+  </si>
+  <si>
+    <t>Datos estadisticos de atenciones prestadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,12 +159,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -187,7 +166,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,26 +203,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -270,17 +231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
@@ -296,11 +246,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -315,91 +264,66 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -711,8 +635,8 @@
   </sheetPr>
   <dimension ref="B2:J86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,489 +652,448 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="3"/>
-      <c r="H7" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f>IF(ISERROR(D9/(SUM($D$9:$D$11))),0,D9/(SUM($D$9:$D$11)))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <f>SUM(D9:D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10:E11" si="0">IF(ISERROR(D10/(SUM($D$9:$D$11))),0,D10/(SUM($D$9:$D$11)))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f>IF(ISERROR(D12/SUM($D$12:$D$17)),0,D12/SUM($D$12:$D$17))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <f>SUM(D12:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13:E17" si="1">IF(ISERROR(D13/SUM($D$12:$D$17)),0,D13/SUM($D$12:$D$17))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <f>IF(ISERROR(D9/(SUM($D$9:$D$11))),0,D9/(SUM($D$9:$D$11)))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <f>SUM(D9:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="12" t="e">
-        <f>I9/SUM($I$9:$I$11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" ref="E10:E11" si="0">IF(ISERROR(D10/(SUM($D$9:$D$11))),0,D10/(SUM($D$9:$D$11)))</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="13" t="e">
-        <f t="shared" ref="J10:J11" si="1">I10/SUM($I$9:$I$11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <f>IF(ISERROR(D18/SUM($D$18:$D$34)),0,D18/SUM($D$18:$D$34))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <f>SUM(D18:D34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <f>IF(ISERROR(D12/SUM($D$12:$D$17)),0,D12/SUM($D$12:$D$17))</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="32">
-        <f>SUM(D12:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="18" t="s">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" ref="E19:E34" si="2">IF(ISERROR(D19/SUM($D$18:$D$34)),0,D19/SUM($D$18:$D$34))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" ref="E13:E17" si="2">IF(ISERROR(D13/SUM($D$12:$D$17)),0,D13/SUM($D$12:$D$17))</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="18" t="s">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="18" t="s">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="18" t="s">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <f>IF(ISERROR(D18/SUM($D$18:$D$34)),0,D18/SUM($D$18:$D$34))</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="31">
-        <f>SUM(D18:D34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="21" t="s">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="22">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <f t="shared" ref="E19:E34" si="3">IF(ISERROR(D19/SUM($D$18:$D$34)),0,D19/SUM($D$18:$D$34))</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="21" t="s">
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="21" t="s">
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="21" t="s">
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="22">
-        <v>0</v>
-      </c>
-      <c r="E23" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="21" t="s">
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="22">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="21" t="s">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="22">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="21" t="s">
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="21" t="s">
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-      <c r="E27" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="21" t="s">
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="31"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="22">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="31"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="31"/>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
@@ -1366,17 +1249,15 @@
       <c r="D86"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:J4"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:F4"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B34"/>
-    <mergeCell ref="G9:G11"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F18:F34"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
